--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Root\PerfectoCI\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvnerG\git\PerfectoCI\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -121,15 +121,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>I545 Galaxy S IV 4.4</t>
-  </si>
-  <si>
-    <t>Galaxy S6</t>
-  </si>
-  <si>
     <t>automationName</t>
   </si>
   <si>
@@ -137,6 +128,18 @@
   </si>
   <si>
     <t>PerfectoMobile</t>
+  </si>
+  <si>
+    <t>avner</t>
+  </si>
+  <si>
+    <t>iPhone-6</t>
+  </si>
+  <si>
+    <t>Galaxy S5 SM-G900A</t>
+  </si>
+  <si>
+    <t>mobileOS</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,32 +530,40 @@
         <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
+      <c r="J2" t="s">
+        <v>37</v>
       </c>
       <c r="K2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -630,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testData.xlsx
+++ b/src/main/resources/testData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvnerG\git\PerfectoCI\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11610" windowHeight="7080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="devices" sheetId="11" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="addresses" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="G1:R16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -484,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +495,7 @@
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -639,9 +636,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
